--- a/snow_excel.xlsx
+++ b/snow_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,546 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Thu 21</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fri 22</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sat 23</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sun 24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>52°</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mon 25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tue 26</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>54°</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Wed 27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Thu 28</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fri 29</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sat 30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sun 01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mon 02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tue 03</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Wed 04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Thu 21</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fri 22</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sat 23</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sun 24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>52°</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mon 25</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tue 26</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>54°</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Wed 27</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thu 28</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fri 29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sat 30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sun 01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mon 02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tue 03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Wed 04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Thu 21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fri 22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sat 23</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sun 24</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>52°</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mon 25</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tue 26</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Wed 27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Thu 28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fri 29</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sat 30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sun 01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>49°</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mon 02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tue 03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>49°</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Wed 04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/snow_excel.xlsx
+++ b/snow_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,6 +1153,186 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>53°</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fri 22</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>52°</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sat 23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>51°</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sun 24</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Mon 25</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tue 26</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>49°</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Wed 27</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>49°</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Thu 28</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>46°</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Fri 29</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>47°</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sat 30</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>49°</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sun 01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>55°</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Mon 02</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>54°</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tue 03</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Wed 04</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>49°</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Thu 05</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>50°</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
